--- a/Energy_Data_Dictionary_2.xlsx
+++ b/Energy_Data_Dictionary_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7E913C-0C95-EE4E-B4B5-8FDB4A9B9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EE8796-FBA1-4F4A-B1A4-204619397C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="500" windowWidth="27480" windowHeight="16940" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
+    <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="16940" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t xml:space="preserve">DATE                                            </t>
   </si>
@@ -298,7 +298,58 @@
     <t>Prince (in cents/KWh) of total electricity</t>
   </si>
   <si>
-    <t>other variables? Weather data</t>
+    <t>tavg</t>
+  </si>
+  <si>
+    <t>Float64</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Average air temperature</t>
+  </si>
+  <si>
+    <t>tmin</t>
+  </si>
+  <si>
+    <t>Minimum air temperature</t>
+  </si>
+  <si>
+    <t>tmax</t>
+  </si>
+  <si>
+    <t>Maximum air temperature</t>
+  </si>
+  <si>
+    <t>prcp</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Precipitation total</t>
+  </si>
+  <si>
+    <t>wspd</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>hPa</t>
+  </si>
+  <si>
+    <t>Average sea-level air pressure</t>
   </si>
 </sst>
 </file>
@@ -314,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +396,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -364,13 +409,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD4BD-3672-7346-AAAF-B604F2036DFC}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,8 +1425,123 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Energy_Data_Dictionary_2.xlsx
+++ b/Energy_Data_Dictionary_2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\GitHub\business_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EE8796-FBA1-4F4A-B1A4-204619397C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FEFB56-3B42-484B-B3F7-714C1E2F480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="16940" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
+    <workbookView xWindow="-825" yWindow="-18945" windowWidth="32715" windowHeight="15225" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Features description" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="139">
   <si>
     <t xml:space="preserve">DATE                                            </t>
   </si>
@@ -350,13 +352,237 @@
   </si>
   <si>
     <t>Average sea-level air pressure</t>
+  </si>
+  <si>
+    <t>Table 2A. Ten largest plants by capacity, 2022</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Primary energy source</t>
+  </si>
+  <si>
+    <t>Operating company</t>
+  </si>
+  <si>
+    <t>Net summer capacity (MW)</t>
+  </si>
+  <si>
+    <t>Walt Bailey Bioenergy Facility</t>
+  </si>
+  <si>
+    <t>Other biomass</t>
+  </si>
+  <si>
+    <t>DC Water</t>
+  </si>
+  <si>
+    <t>US GSA Heating and Transmission</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>AOC, Capitol Power Plant</t>
+  </si>
+  <si>
+    <t>Architect of the Capitol, Capitol Power Plant</t>
+  </si>
+  <si>
+    <t>JBAB - Washington DC</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>JBAB Solar I, LLC.</t>
+  </si>
+  <si>
+    <t>Ross Hall Central Utility Plant</t>
+  </si>
+  <si>
+    <t>The George Washington University</t>
+  </si>
+  <si>
+    <t>DC Water Solar</t>
+  </si>
+  <si>
+    <t>Marbury Point Solar LLC</t>
+  </si>
+  <si>
+    <t>Oxon Run CREF</t>
+  </si>
+  <si>
+    <t>Oxon Run Community Renewable Energy Facility</t>
+  </si>
+  <si>
+    <t>Ridgecrest</t>
+  </si>
+  <si>
+    <t>Greenbacker Renewable Energy Corporation</t>
+  </si>
+  <si>
+    <t>IGS CC, LLC</t>
+  </si>
+  <si>
+    <t>WW-DC Solar 1, LLC</t>
+  </si>
+  <si>
+    <t>Source: U.S. Energy Information Administration, Form EIA-860, Annual Electric Generator Report.</t>
+  </si>
+  <si>
+    <t>Table 2B. Ten largest plants by generation, 2022</t>
+  </si>
+  <si>
+    <t>Generation (MWh)</t>
+  </si>
+  <si>
+    <t>Nationals</t>
+  </si>
+  <si>
+    <t>Terraform Arcadia</t>
+  </si>
+  <si>
+    <t>Source: U.S. Energy Information Administration, Form EIA-923, Power Plant Operations Report and predecessor forms.</t>
+  </si>
+  <si>
+    <r>
+      <t>An </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>independent power producer (IPP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>non-utility generator (NUG)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>entity</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> that is not a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>public utility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> but owns facilities to generate electric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> for sale to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>utilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and end users.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,8 +590,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="30"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6"/>
+      <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +669,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -405,16 +696,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,22 +1055,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD4BD-3672-7346-AAAF-B604F2036DFC}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -764,7 +1091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +1111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -804,7 +1131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -824,7 +1151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -844,7 +1171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +1190,11 @@
       <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -884,7 +1214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -904,7 +1234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -924,7 +1254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -944,7 +1274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,7 +1294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +1354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1164,7 +1494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1224,7 +1554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1244,7 +1574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1594,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1614,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1304,7 +1634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1324,7 +1654,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1344,7 +1674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1384,7 +1714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1734,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +1754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>87</v>
       </c>
@@ -1444,7 +1774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -1464,7 +1794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -1484,7 +1814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>96</v>
       </c>
@@ -1504,7 +1834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -1524,7 +1854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
@@ -1547,4 +1877,500 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFADAED-E972-4040-9C01-04C0703EB5D7}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.9140625" customWidth="1"/>
+    <col min="5" max="5" width="61.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="10">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="10">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.5" customHeight="1">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.5" customHeight="1">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" customHeight="1">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="10">
+        <v>58214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="10">
+        <v>51509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="10">
+        <v>16998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="10">
+        <v>11268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="10">
+        <v>8776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>6</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="10">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>8</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>9</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A31:E31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Energy_Data_Dictionary_2.xlsx
+++ b/Energy_Data_Dictionary_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\GitHub\business_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FEFB56-3B42-484B-B3F7-714C1E2F480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F11BC-74FA-7F46-A2AC-FC8CDD1E294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-825" yWindow="-18945" windowWidth="32715" windowHeight="15225" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
+    <workbookView xWindow="3520" yWindow="1060" windowWidth="27920" windowHeight="17500" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Features description" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>Count of customers of residential electricity</t>
   </si>
   <si>
-    <t>Prince (in cents/KWh) of residential electricity</t>
-  </si>
-  <si>
     <t>Revenue (in thousand dollars) of commercial electricity</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>Count of customers of commercial electricity</t>
   </si>
   <si>
-    <t>Prince (in cents/KWh) of commercial electricity</t>
-  </si>
-  <si>
     <t>Revenue (in thousand dollars) of industrial electricity</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>Count of customers of industrial electricity</t>
   </si>
   <si>
-    <t>Prince (in cents/KWh) of industrial electricity</t>
-  </si>
-  <si>
     <t>Revenue (in thousand dollars) of transportation electricity</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
     <t>Count of customers of transportation electricity</t>
   </si>
   <si>
-    <t>Prince (in cents/KWh) of transportation electricity</t>
-  </si>
-  <si>
     <t>Revenue (in thousand dollars) of other electricity</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>Count of customers of other electricity</t>
   </si>
   <si>
-    <t>Prince (in cents/KWh) of other electricity</t>
-  </si>
-  <si>
     <t>Revenue (in thousand dollars) of total electricity</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
   </si>
   <si>
     <t>Count of customers of total electricity</t>
-  </si>
-  <si>
-    <t>Prince (in cents/KWh) of total electricity</t>
   </si>
   <si>
     <t>tavg</t>
@@ -577,12 +559,30 @@
       <t> and end users.</t>
     </r>
   </si>
+  <si>
+    <t>Average Price (in cents/KWh) of residential electricity</t>
+  </si>
+  <si>
+    <t>Average Price (in cents/KWh) of commercial electricity</t>
+  </si>
+  <si>
+    <t>Average Price (in cents/KWh) of industrial electricity</t>
+  </si>
+  <si>
+    <t>Average Price (in cents/KWh) of transportation electricity</t>
+  </si>
+  <si>
+    <t>Average Price (in cents/KWh) of other electricity</t>
+  </si>
+  <si>
+    <t>Average Price (in cents/KWh) of total electricity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,21 +595,25 @@
       <sz val="12"/>
       <color indexed="30"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -721,9 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -737,10 +738,13 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,20 +1062,20 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="99.08203125" customWidth="1"/>
+    <col min="7" max="7" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1190,11 +1194,11 @@
       <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,10 +1355,10 @@
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1371,10 +1375,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1391,10 +1395,10 @@
         <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1411,10 +1415,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1431,10 +1435,10 @@
         <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1451,10 +1455,10 @@
         <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1471,10 +1475,10 @@
         <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1491,10 +1495,10 @@
         <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1511,10 +1515,10 @@
         <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1531,10 +1535,10 @@
         <v>60</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1551,10 +1555,10 @@
         <v>60</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,10 +1575,10 @@
         <v>60</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,10 +1595,10 @@
         <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1611,10 +1615,10 @@
         <v>61</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1631,10 +1635,10 @@
         <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1651,10 +1655,10 @@
         <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1671,10 +1675,10 @@
         <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1691,10 +1695,10 @@
         <v>62</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1711,10 +1715,10 @@
         <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1731,10 +1735,10 @@
         <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1751,127 +1755,127 @@
         <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1887,489 +1891,489 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="47.9140625" customWidth="1"/>
-    <col min="5" max="5" width="61.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E4" s="9">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="8">
+      <c r="C6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="9">
+        <v>58214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E22" s="9">
+        <v>51509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="9">
+        <v>16998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="9">
+        <v>11268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="10">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="E25" s="9">
+        <v>8776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5.9</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.5" customHeight="1">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="E30" s="9">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="10">
-        <v>58214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8">
-        <v>2</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="10">
-        <v>51509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="10">
-        <v>16998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="10">
-        <v>11268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8">
-        <v>5</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="10">
-        <v>8776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8">
-        <v>6</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="10">
-        <v>5323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8">
-        <v>7</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="10">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8">
-        <v>8</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="10">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8">
-        <v>9</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Energy_Data_Dictionary_2.xlsx
+++ b/Energy_Data_Dictionary_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Documents\GitHub\business\business_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F11BC-74FA-7F46-A2AC-FC8CDD1E294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175639F2-B8E2-4333-A80F-CE7D695681C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="1060" windowWidth="27920" windowHeight="17500" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Features description" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="141">
   <si>
     <t xml:space="preserve">DATE                                            </t>
   </si>
@@ -168,18 +168,6 @@
     <t>Energy generation (in MWh) from solar, thermal, and photovoltaic source</t>
   </si>
   <si>
-    <t>Combined Heat and Power, Commercial Power used to produce energy</t>
-  </si>
-  <si>
-    <t>Combined Heat and Power, Electric Power used to produce energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric Generators, Independent Power Producers used to produce energy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric Generators, Electric Utilities used to produce energy </t>
-  </si>
-  <si>
     <t>Column Number</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>MWh</t>
   </si>
   <si>
-    <t>Thousand dollars</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -228,52 +213,34 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Revenue (in thousand dollars) of residential electricity</t>
-  </si>
-  <si>
     <t>Sales (in MWh) of residential electricity</t>
   </si>
   <si>
     <t>Count of customers of residential electricity</t>
   </si>
   <si>
-    <t>Revenue (in thousand dollars) of commercial electricity</t>
-  </si>
-  <si>
     <t>Sales (in MWh) of commercial electricity</t>
   </si>
   <si>
     <t>Count of customers of commercial electricity</t>
   </si>
   <si>
-    <t>Revenue (in thousand dollars) of industrial electricity</t>
-  </si>
-  <si>
     <t>Sales (in MWh) of industrial electricity</t>
   </si>
   <si>
     <t>Count of customers of industrial electricity</t>
   </si>
   <si>
-    <t>Revenue (in thousand dollars) of transportation electricity</t>
-  </si>
-  <si>
     <t>Sales (in MWh) of transportation electricity</t>
   </si>
   <si>
     <t>Count of customers of transportation electricity</t>
   </si>
   <si>
-    <t>Revenue (in thousand dollars) of other electricity</t>
-  </si>
-  <si>
     <t>Sales (in MWh) of other electricity</t>
   </si>
   <si>
     <t>Count of customers of other electricity</t>
-  </si>
-  <si>
-    <t>Revenue (in thousand dollars) of total electricity</t>
   </si>
   <si>
     <t>Sales (in MWh) of total electricity</t>
@@ -577,12 +544,51 @@
   <si>
     <t>Average Price (in cents/KWh) of total electricity</t>
   </si>
+  <si>
+    <t>Electric Generators, Type of producer: Independent Power Producers</t>
+  </si>
+  <si>
+    <t>Electric Generators, Type of producer: Electric Utilities</t>
+  </si>
+  <si>
+    <t>Combined heat and power (CHP), also called cogeneration, is an efficient approach to generating electric power and useful thermal energy for heating or cooling from a single fuel source. Instead of purchasing electricity from the grid and producing heat in an on-site furnace or boiler, a CHP generator provides both energy services in one energy-efficient step. CHP plants can be found in three sectors: the electric power sector (plants whose primary purpose is to produce electricity for public sale); and the industrial and commercial sectors (where the CHP facility is usually intended to provide electricity and steam to the host facility, such as a factory). More than 85% of all generating capacity sited at industrial and commercial facilities uses CHP technology.</t>
+  </si>
+  <si>
+    <t>Combined Heat and Power (cogeneration), Type of producer: Commercial Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined Heat and Power (cogeneration), Type of producer: Electric Power </t>
+  </si>
+  <si>
+    <t>Thousand dollars</t>
+  </si>
+  <si>
+    <t>Revenue (in Thousand dollars) of residential electricity</t>
+  </si>
+  <si>
+    <t>Revenue (in Thousand dollars) of commercial electricity</t>
+  </si>
+  <si>
+    <t>Revenue (in Thousand dollars) of industrial electricity</t>
+  </si>
+  <si>
+    <t>Revenue (in Thousand dollars) of transportation electricity</t>
+  </si>
+  <si>
+    <t>Revenue (in Thousand dollars) of other electricity</t>
+  </si>
+  <si>
+    <t>Revenue (in Thousand dollars) of total electricity</t>
+  </si>
+  <si>
+    <t>e.g. 10 cent/kwh = 100 dollars/MWh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,6 +644,12 @@
       <vertAlign val="superscript"/>
       <sz val="6"/>
       <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -719,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -739,12 +751,16 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,40 +1078,40 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -1115,7 +1131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1126,16 +1142,19 @@
         <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1146,16 +1165,16 @@
         <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1166,16 +1185,16 @@
         <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1186,19 +1205,19 @@
         <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1209,16 +1228,16 @@
         <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1229,16 +1248,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1249,16 +1268,16 @@
         <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1269,16 +1288,16 @@
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1289,16 +1308,16 @@
         <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,16 +1328,16 @@
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1329,16 +1348,16 @@
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1349,16 +1368,19 @@
         <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,16 +1391,16 @@
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1389,16 +1411,16 @@
         <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1409,16 +1431,16 @@
         <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,16 +1451,16 @@
         <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1449,16 +1471,16 @@
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1469,16 +1491,16 @@
         <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1489,16 +1511,16 @@
         <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1509,16 +1531,16 @@
         <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1529,16 +1551,16 @@
         <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,16 +1571,16 @@
         <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,16 +1591,16 @@
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1589,16 +1611,16 @@
         <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1609,16 +1631,16 @@
         <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1629,16 +1651,16 @@
         <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1649,16 +1671,16 @@
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1669,16 +1691,16 @@
         <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1689,16 +1711,16 @@
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1709,16 +1731,16 @@
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1729,16 +1751,16 @@
         <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1749,137 +1771,138 @@
         <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1887,248 +1910,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFADAED-E972-4040-9C01-04C0703EB5D7}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="61" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E4" s="9">
         <v>12</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E5" s="9">
         <v>9</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E6" s="9">
         <v>7.5</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9">
         <v>5.9</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E8" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E9" s="9">
         <v>3.5</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E10" s="9">
         <v>2</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E11" s="9">
         <v>1.7</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E12" s="9">
         <v>1.5</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E13" s="9">
         <v>1.2</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2136,7 +2159,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2144,7 +2167,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2152,219 +2175,219 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E21" s="9">
         <v>58214</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E22" s="9">
         <v>51509</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E23" s="9">
         <v>16998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E24" s="9">
         <v>11268</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>5</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E25" s="9">
         <v>8776</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E26" s="9">
         <v>5323</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E27" s="9">
         <v>2485</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>8</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E28" s="9">
         <v>2143</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>9</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E29" s="9">
         <v>1781</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>10</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E30" s="9">
         <v>1406</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
